--- a/Examples/orcerc/orcerc_model.xlsx
+++ b/Examples/orcerc/orcerc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\orcerc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcerc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0699B733-40B1-4DFD-8F34-3157D56650BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED30F76-9021-4087-AADA-DED10A62C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1710" windowWidth="22935" windowHeight="12270" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="3465" windowWidth="16920" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -411,6 +411,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F4586D-F0DE-21A7-C56E-186E9083A0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="3048000"/>
+          <a:ext cx="5067300" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,13 +767,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1502,7 +1569,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Examples/orcerc/orcerc_model.xlsx
+++ b/Examples/orcerc/orcerc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcerc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcerc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED30F76-9021-4087-AADA-DED10A62C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A8C7D-5DAE-4903-A8C0-06C173384464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="3465" windowWidth="16920" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -767,7 +767,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1703,8 +1703,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1729,7 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>

--- a/Examples/orcerc/orcerc_model.xlsx
+++ b/Examples/orcerc/orcerc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\orcerc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\orcerc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A8C7D-5DAE-4903-A8C0-06C173384464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE655A-4317-41B1-AD7B-F207E21A0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="375" windowWidth="17265" windowHeight="12525" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25740" windowHeight="14700" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -1031,18 +1031,19 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1067,13 +1068,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -1084,13 +1085,13 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -1101,13 +1102,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
@@ -1118,13 +1119,13 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -1135,13 +1136,13 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>62</v>
@@ -1152,13 +1153,13 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -1169,13 +1170,13 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>64</v>
@@ -1190,7 +1191,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D8</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1703,7 +1704,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
